--- a/generated_output/temp/us-core-medicationrequest.xlsx
+++ b/generated_output/temp/us-core-medicationrequest.xlsx
@@ -187,7 +187,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -206,7 +206,7 @@
     <t>MedicationRequest.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -222,7 +222,7 @@
     <t>MedicationRequest.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -241,7 +241,7 @@
     <t>MedicationRequest.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -273,7 +273,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -325,7 +325,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -360,7 +360,7 @@
     <t>MedicationRequest.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -427,7 +427,7 @@
     <t>MedicationRequest.statusReason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -541,7 +541,7 @@
     <t>MedicationRequest.doNotPerform</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -560,8 +560,8 @@
     <t>MedicationRequest.reported[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}</t>
+    <t>boolean
+Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)</t>
   </si>
   <si>
     <t>Reported rather than primary record</t>
@@ -576,8 +576,8 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication]]}</t>
+    <t>CodeableConcept
+Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication)</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -625,7 +625,7 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -661,7 +661,7 @@
     <t>MedicationRequest.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -689,7 +689,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -708,7 +708,7 @@
     <t>MedicationRequest.authoredOn</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -739,7 +739,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner)
 </t>
   </si>
   <si>
@@ -761,7 +761,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/CareTeam]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson|CareTeam)
 </t>
   </si>
   <si>
@@ -807,7 +807,7 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -859,7 +859,7 @@
     <t>MedicationRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(Condition|Observation)
 </t>
   </si>
   <si>
@@ -881,7 +881,7 @@
     <t>MedicationRequest.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical {[]} {[]}
+    <t xml:space="preserve">canonical
 </t>
   </si>
   <si>
@@ -909,7 +909,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation]]}
+    <t xml:space="preserve">Reference(CarePlan|MedicationRequest|ServiceRequest|ImmunizationRecommendation)
 </t>
   </si>
   <si>
@@ -967,7 +967,7 @@
     <t>MedicationRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Coverage], CanonicalType[http://hl7.org/fhir/StructureDefinition/ClaimResponse]]}
+    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
 </t>
   </si>
   <si>
@@ -986,7 +986,7 @@
     <t>MedicationRequest.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1008,7 +1008,7 @@
     <t>MedicationRequest.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {[]} {[]}
+    <t xml:space="preserve">Dosage
 </t>
   </si>
   <si>
@@ -1030,7 +1030,7 @@
     <t>MedicationRequest.dosageInstruction.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -1085,7 +1085,7 @@
     <t>MedicationRequest.dosageInstruction.sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">integer {[]} {[]}
+    <t xml:space="preserve">integer
 </t>
   </si>
   <si>
@@ -1167,7 +1167,7 @@
     <t>MedicationRequest.dosageInstruction.timing</t>
   </si>
   <si>
-    <t xml:space="preserve">Timing {[]} {[]}
+    <t xml:space="preserve">Timing
 </t>
   </si>
   <si>
@@ -1192,8 +1192,8 @@
     <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-CodeableConcept {[]} {[]}</t>
+    <t>boolean
+CodeableConcept</t>
   </si>
   <si>
     <t>Take "as needed" (for x)</t>
@@ -1310,7 +1310,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate</t>
   </si>
   <si>
-    <t xml:space="preserve">Element {[]} {[]}
+    <t xml:space="preserve">Element
 </t>
   </si>
   <si>
@@ -1363,8 +1363,8 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range {[]} {[]}
-Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}</t>
+    <t>Range
+Quantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>Amount of medication per dose</t>
@@ -1388,8 +1388,8 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t>Ratio {[]} {[]}
-Range {[]} {[]}Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}</t>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>Amount of medication per unit of time</t>
@@ -1418,7 +1418,7 @@
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {[]} {[]}
+    <t xml:space="preserve">Ratio
 </t>
   </si>
   <si>
@@ -1446,7 +1446,7 @@
     <t>MedicationRequest.dosageInstruction.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1486,7 +1486,7 @@
     <t>MedicationRequest.dispenseRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1550,7 +1550,7 @@
     <t>MedicationRequest.dispenseRequest.initialFill.duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration {[]} {[]}
+    <t xml:space="preserve">Duration
 </t>
   </si>
   <si>
@@ -1575,7 +1575,7 @@
     <t>MedicationRequest.dispenseRequest.validityPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
   </si>
   <si>
-    <t xml:space="preserve">unsignedInt {[]} {[]}
+    <t xml:space="preserve">unsignedInt
 </t>
   </si>
   <si>
@@ -1661,7 +1661,7 @@
     <t>MedicationRequest.dispenseRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1749,7 +1749,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest]]}
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -1772,7 +1772,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DetectedIssue]]}
+    <t xml:space="preserve">Reference(DetectedIssue)
 </t>
   </si>
   <si>
@@ -1791,7 +1791,7 @@
     <t>MedicationRequest.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Provenance]]}
+    <t xml:space="preserve">Reference(Provenance)
 </t>
   </si>
   <si>
@@ -1860,67 +1860,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
